--- a/currentbuild/StructureDefinition-mal-observation-blodprove.xlsx
+++ b/currentbuild/StructureDefinition-mal-observation-blodprove.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -96,7 +96,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>6.0.0-ballot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -240,16 +240,16 @@
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 V2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t>Mapping: SNOMED CT Concept Domain Binding</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
@@ -282,19 +282,22 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id.trace('id') in %resource.descendants().select(reference | as(uri))) or descendants().where(reference='#' | as(uri)='#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:Observation.dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.component.code is the same as Observation.code, then Observation.value SHALL NOT be present (the Observation.component.value[x] holds the value). {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-8:bodyStructure SHALL only be present if Observation.bodySite is not present {bodySite.exists() implies bodyStructure.empty()}obs-10:Observation.component.dataAbsentReason SHALL only be present if Observation.component.value[x] is not present {component.empty() or component.where(dataAbsentReason.exists()).all(value.empty())}obs-11:if organizer exists and organizer = true, then value[x], dataAbsentReason and component SHALL NOT be present {(organizer.exists() and organizer.allTrue()) implies (value.empty() and dataAbsentReason.empty() and component.empty())}</t>
   </si>
   <si>
     <t>Event</t>
   </si>
   <si>
+    <t>clinical.diagnostics</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>Entity, Role, or Act,Observation[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
     <t>&lt; 363787002 |Observable entity|</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -316,7 +319,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -355,7 +358,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -377,13 +380,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|6.0.0-ballot3</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -406,10 +409,14 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-6
+</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -429,13 +436,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels. Contained resources may be a resource type defined in the FHIR specification, or an [additional resource](http://build.fhir.org/resource.html#additional).</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
   </si>
   <si>
     <t>N/A</t>
@@ -455,7 +466,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -464,21 +475,17 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -503,13 +510,35 @@
     <t>Event.identifier</t>
   </si>
   <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>OBX-21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 3) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>FiveWs.identifier</t>
+    <t>Observation.instantiates[x]</t>
+  </si>
+  <si>
+    <t>canonical(ObservationDefinition|6.0.0-ballot3)
+Reference(ObservationDefinition|6.0.0-ballot3)</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR ObservationDefinition</t>
+  </si>
+  <si>
+    <t>The reference to a FHIR ObservationDefinition resource that provides the definition that is adhered to in whole or in part by this Observation instance.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition can be referenced by its canonical url using instantiatesCanonical, or by a name or an identifier using the appropriate sub-elements of instantiatesReference.</t>
+  </si>
+  <si>
+    <t>Event.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
   </si>
   <si>
     <t>Observation.basedOn</t>
@@ -519,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|6.0.0-ballot3|DeviceRequest|6.0.0-ballot3|ImmunizationRecommendation|6.0.0-ballot3|MedicationRequest|6.0.0-ballot3|NutritionOrder|6.0.0-ballot3|ServiceRequest|6.0.0-ballot3)
 </t>
   </si>
   <si>
@@ -539,6 +568,119 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Triggering observation(s)</t>
+  </si>
+  <si>
+    <t>Identifies the observation(s) that triggered the performance of this observation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children or both {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation|6.0.0-ballot3)
+</t>
+  </si>
+  <si>
+    <t>Triggering observation</t>
+  </si>
+  <si>
+    <t>Reference to the triggering observation.</t>
+  </si>
+  <si>
+    <t>outBoundRelationship</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.type</t>
+  </si>
+  <si>
+    <t>reflex | repeat | re-run</t>
+  </si>
+  <si>
+    <t>The type of trigger.
+Reflex | Repeat | Re-run.</t>
+  </si>
+  <si>
+    <t>The type of TriggeredBy Observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-triggeredbytype|6.0.0-ballot3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.reason</t>
+  </si>
+  <si>
+    <t>Reason that the observation was triggered</t>
+  </si>
+  <si>
+    <t>Provides the reason why this observation was performed as a result of the observation(s) referenced.</t>
+  </si>
+  <si>
+    <t>annotation</t>
   </si>
   <si>
     <t>Observation.partOf</t>
@@ -548,7 +690,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|6.0.0-ballot3|MedicationDispense|6.0.0-ballot3|MedicationStatement|6.0.0-ballot3|Procedure|6.0.0-ballot3|Immunization|6.0.0-ballot3|ImagingStudy|6.0.0-ballot3|GenomicStudy|6.0.0-ballot3)
 </t>
   </si>
   <si>
@@ -558,7 +700,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://build.fhir.org/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -573,7 +715,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>registered | specimen-in-process | preliminary | final | amended | corrected | appended | cancelled | entered-in-error | unknown | cannot-be-obtained</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -585,28 +727,25 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Codes providing the status of an observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|6.0.0-ballot3</t>
   </si>
   <si>
     <t>Event.status</t>
   </si>
   <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
     <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -628,16 +767,19 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|6.0.0-ballot3</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -665,22 +807,23 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|6.0.0-ballot3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>Event.code</t>
   </si>
   <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
     <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
   </si>
   <si>
     <t>116680003 |Is a|</t>
@@ -696,10 +839,10 @@
     <t>Who and/or what the observation is about</t>
   </si>
   <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+    <t>The patient, or group of patients, location, device, organization, procedure or practitioner this observation is about and into whose or what record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated. The subject of an Observation may in some cases be a procedure.  This supports the regulatory inspection use case where observations are captured during inspections of a procedure that is being performed (independent of any particular patient or whether patient related at all).</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -708,32 +851,62 @@
     <t>Event.subject</t>
   </si>
   <si>
+    <t>FiveWs.subject[x]</t>
+  </si>
+  <si>
     <t>PID-3</t>
   </si>
   <si>
     <t>participation[typeCode=RTGT]</t>
   </si>
   <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource|6.0.0-ballot3)
 </t>
   </si>
   <si>
     <t>What the observation is about, when it is not about the subject of record</t>
   </si>
   <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+    <t>The actual focus of an observation when it is not the subject of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus. As another use case,++a caregiver (RelatedPerson) has back strain and is unable to provide ADL support to a patient (Subject).</t>
+  </si>
+  <si>
+    <t>Examples demonstrating the use of subject and focus in an Observation:++- A parent is trained to change their child's tracheostomy tube. The child is the subject, and the parent is the focus.++- A fetal heart rate recorded in a mother's record. The mother is the subject, and the fetus is the focus.++- Features of a body structure, such as a tumor. The patient is the subject, and the specific body structure is the focus.++- Metrics captured from a medical device. The patient-attached device is the subject, the specific device metric is the focus, and the observing device itself is referenced in .device.</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>This observation organizes/groups a set of sub-observations</t>
+  </si>
+  <si>
+    <t>This observation serves as an organizer or grouper for a set of (one or more) sub-observations.</t>
+  </si>
+  <si>
+    <t>An observation that is an organizer/grouper does not have a value (or dataAbsentReason) of its own - all values are included in the sub-observations.  The sub-observations are linked using hasMember element references (in some instances there may be no hasMember references, as it is possible that the organizer/grouper observation may be created first, and the sub-observations are not created until a later time).  An organizer/grouper observation also does not contain any components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-11
+</t>
   </si>
   <si>
     <t>Observation.encounter</t>
@@ -743,7 +916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter|6.0.0-ballot3)
 </t>
   </si>
   <si>
@@ -759,16 +932,16 @@
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
   </si>
   <si>
-    <t>Event.context</t>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
   </si>
   <si>
     <t>PV1</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
   </si>
   <si>
     <t>Observation.effective[x]</t>
@@ -788,7 +961,7 @@
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://build.fhir.org/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -804,13 +977,13 @@
     <t>Event.occurrence[x]</t>
   </si>
   <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
     <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
   </si>
   <si>
     <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
   </si>
   <si>
     <t>Observation.effective[x]:effectiveDateTime</t>
@@ -836,22 +1009,22 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+    <t>For Observations that don't require review and verification, it may be the same as the [`lastUpdated` ](http://build.fhir.org/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn't require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>OBR-22 (or MSH-7), or perhaps OBX-19 (depends on who observation made)</t>
   </si>
   <si>
     <t>participation[typeCode=AUT].time</t>
   </si>
   <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|6.0.0-ballot3|PractitionerRole|6.0.0-ballot3|Organization|6.0.0-ballot3|CareTeam|6.0.0-ballot3|Patient|6.0.0-ballot3|RelatedPerson|6.0.0-ballot3|HealthcareService|6.0.0-ballot3)
 </t>
   </si>
   <si>
@@ -867,20 +1040,20 @@
     <t>Event.performer.actor</t>
   </si>
   <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>OBX-15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
   </si>
   <si>
     <t>participation[typeCode=PRF]</t>
   </si>
   <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
     <t>Observation.value[x]</t>
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence|6.0.0-ballot3)</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -889,23 +1062,31 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>- An observation may have:
+  1.  a single value here
+  1.  both a value and a set of related or component values
+  1.  only a set of related or component values.
+-  If a value is present, the datatype for this element should be determined by the `code`.
+-  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
+-  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
+- The usage of valueReference is restricted to the MolecularSequence resource when used as a definitional resource, not as a patient-specific finding. .
+- For additional guidance, see the [Notes section](http://build.fhir.org/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>obs-7
+obs-6obs-11</t>
+  </si>
+  <si>
+    <t>OBX-2, OBX-5, OBX-6</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
   </si>
   <si>
     <t>363714003 |Interprets|</t>
@@ -924,14 +1105,14 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the result is missing</t>
+    <t>Why the result value is missing</t>
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
   </si>
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.</t>
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
@@ -943,11 +1124,11 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|6.0.0-ballot3</t>
+  </si>
+  <si>
+    <t>obs-6
+obs-11</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -960,7 +1141,7 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
+    <t>High, low, normal, etc</t>
   </si>
   <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
@@ -975,16 +1156,16 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|6.0.0-ballot3</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>interpretationCode</t>
   </si>
   <si>
     <t>363713009 |Has interpretation|</t>
@@ -1009,7 +1190,7 @@
     <t>Need to be able to provide free text additional information.</t>
   </si>
   <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+    <t>NTE-3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
   </si>
   <si>
     <t>subjectOf.observationEvent[code="annotation"].value</t>
@@ -1024,28 +1205,47 @@
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.</t>
+  </si>
+  <si>
+    <t>SNOMED CT Body site concepts</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site|6.0.0-ballot3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-8
+</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
   </si>
   <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
     <t>718497002 |Inherent location|</t>
   </si>
   <si>
+    <t>Observation.bodyStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(BodyStructure|6.0.0-ballot3)
+</t>
+  </si>
+  <si>
+    <t>Observed body structure</t>
+  </si>
+  <si>
+    <t>Indicates the body structure on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code or bodySite is used. In many systems, this may be represented as a related observation instead of an inline component.</t>
+  </si>
+  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -1064,7 +1264,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|6.0.0-ballot3</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1076,7 +1276,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
+    <t xml:space="preserve">Reference(Specimen|6.0.0-ballot3|Group|6.0.0-ballot3)
 </t>
   </si>
   <si>
@@ -1089,53 +1289,53 @@
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-9:If Observation.specimen is a reference to Group, the group can only have specimens {(reference.resolve().exists() and reference.resolve() is Group) implies reference.resolve().member.entity.resolve().all($this is Specimen)}</t>
+  </si>
+  <si>
+    <t>SPM segment</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SPC].specimen</t>
+  </si>
+  <si>
     <t>&lt; 123038009 |Specimen|</t>
   </si>
   <si>
-    <t>SPM segment</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SPC].specimen</t>
-  </si>
-  <si>
     <t>704319004 |Inherent in|</t>
   </si>
   <si>
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|6.0.0-ballot3|DeviceMetric|6.0.0-ballot3)
 </t>
   </si>
   <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
+    <t>A reference to the device that generates the measurements or the device settings for the device</t>
+  </si>
+  <si>
+    <t>A reference to the device that generates the measurements or the device settings for the device.</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
   </si>
   <si>
+    <t>OBX-17 / PRT -10</t>
+  </si>
+  <si>
+    <t>participation[typeCode=DEV]</t>
+  </si>
+  <si>
     <t>&lt; 49062001 |Device|</t>
   </si>
   <si>
-    <t>OBX-17 / PRT -10</t>
-  </si>
-  <si>
-    <t>participation[typeCode=DEV]</t>
-  </si>
-  <si>
     <t>424226004 |Using device|</t>
   </si>
   <si>
     <t>Observation.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
     <t>Provides guide for interpretation</t>
   </si>
   <si>
@@ -1148,11 +1348,11 @@
     <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children or both {hasValue() or (children().count() &gt; id.count())}
 obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
   </si>
   <si>
-    <t>OBX.7</t>
+    <t>OBX-7</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
@@ -1161,52 +1361,16 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity|6.0.0-ballot3}
 </t>
   </si>
   <si>
@@ -1220,9 +1384,6 @@
 </t>
   </si>
   <si>
-    <t>OBX-7</t>
-  </si>
-  <si>
     <t>value:IVL_PQ.low</t>
   </si>
   <si>
@@ -1238,6 +1399,24 @@
     <t>value:IVL_PQ.high</t>
   </si>
   <si>
+    <t>Observation.referenceRange.normalValue</t>
+  </si>
+  <si>
+    <t>Normal value, if relevant</t>
+  </si>
+  <si>
+    <t>The value of the normal value of the reference range.</t>
+  </si>
+  <si>
+    <t>Codes identifying the normal value of the observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue|6.0.0-ballot3</t>
+  </si>
+  <si>
+    <t>value:IVL_PQ.normal</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.type</t>
   </si>
   <si>
@@ -1256,7 +1435,10 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|6.0.0-ballot3</t>
+  </si>
+  <si>
+    <t>OBX-10</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1268,9 +1450,6 @@
 &lt; 443938003 |Procedure carried out on subject|</t>
   </si>
   <si>
-    <t>OBX-10</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.appliesTo</t>
   </si>
   <si>
@@ -1289,7 +1468,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|6.0.0-ballot3</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1314,6 +1493,10 @@
     <t>Observation.referenceRange.text</t>
   </si>
   <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
     <t>Text based reference range in an observation</t>
   </si>
   <si>
@@ -1326,7 +1509,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|6.0.0-ballot3|QuestionnaireResponse|6.0.0-ballot3|MolecularSequence|6.0.0-ballot3)
 </t>
   </si>
   <si>
@@ -1336,29 +1519,26 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://build.fhir.org/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R5/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
   </si>
   <si>
-    <t>outBoundRelationship</t>
-  </si>
-  <si>
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(DocumentReference|6.0.0-ballot3|ImagingStudy|6.0.0-ballot3|ImagingSelection|6.0.0-ballot3|QuestionnaireResponse|6.0.0-ballot3|Observation|6.0.0-ballot3|MolecularSequence|6.0.0-ballot3|GenomicStudy|6.0.0-ballot3)
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from</t>
+    <t>Related resource from which the observation is made</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://build.fhir.org/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1373,10 +1553,14 @@
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://build.fhir.org/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable). However, reference range, dataAbsentReason, and interpretation can differ between the components and are not inherited; these should be provided if appropriate.</t>
+  </si>
+  <si>
+    <t>obs-7
+obs-11obs-10</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1416,7 +1600,20 @@
     <t>Actual component result</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations:
+-  An observation may have both a value (e.g. an  Apgar score) and component observations (the observations from which the Apgar score was derived). 
+-  If a value is present, the datatype for this element should be determined by the `code`.
+-  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
+-  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
+- If a value is present, the datatype for this element should be determined by the `code`.
+-  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
+-  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
+- The usage of valueReference is restricted to the MolecularSequence resource when used as a definitional resource, not as a patient-specific finding. .
+- For additional guidance, see the [Notes section](http://build.fhir.org/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-10
+</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1425,7 +1622,7 @@
     <t>Observation.component.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the component result is missing</t>
+    <t>Why the component result value is missing</t>
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
@@ -1441,7 +1638,7 @@
     <t>Observation.component.referenceRange</t>
   </si>
   <si>
-    <t>Provides guide for interpretation of component result</t>
+    <t>Provides guide for interpretation of component result value</t>
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
@@ -1764,7 +1961,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1783,7 +1980,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="182.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1798,7 +1995,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.3984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -1809,10 +2006,10 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2058,7 +2255,7 @@
         <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>82</v>
@@ -2066,10 +2263,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2080,7 +2277,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2089,19 +2286,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2151,13 +2348,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2186,10 +2383,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2200,7 +2397,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2209,16 +2406,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2269,19 +2466,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2304,10 +2501,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2318,28 +2515,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2389,19 +2586,19 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>82</v>
@@ -2424,10 +2621,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2438,7 +2635,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>82</v>
@@ -2450,16 +2647,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2485,13 +2682,13 @@
         <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>82</v>
@@ -2509,19 +2706,19 @@
         <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -2544,21 +2741,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -2570,16 +2767,16 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2629,19 +2826,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -2653,7 +2850,7 @@
         <v>82</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>82</v>
@@ -2664,14 +2861,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2690,16 +2887,16 @@
         <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2749,7 +2946,7 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2758,7 +2955,7 @@
         <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>82</v>
@@ -2773,7 +2970,7 @@
         <v>82</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>82</v>
@@ -2784,14 +2981,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2810,16 +3007,16 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2869,7 +3066,7 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -2881,7 +3078,7 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -2893,7 +3090,7 @@
         <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>82</v>
@@ -2904,14 +3101,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2924,25 +3121,25 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>82</v>
@@ -2991,7 +3188,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3003,7 +3200,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3015,7 +3212,7 @@
         <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>82</v>
@@ -3026,10 +3223,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3049,20 +3246,20 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3111,7 +3308,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3123,22 +3320,22 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>82</v>
@@ -3146,21 +3343,21 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3169,21 +3366,21 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
         <v>164</v>
       </c>
+      <c r="N12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>82</v>
       </c>
@@ -3231,28 +3428,28 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>167</v>
@@ -3289,7 +3486,7 @@
         <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>170</v>
@@ -3300,10 +3497,10 @@
       <c r="M13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
       </c>
@@ -3363,7 +3560,7 @@
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>174</v>
@@ -3397,35 +3594,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
       </c>
@@ -3449,13 +3642,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3476,31 +3669,31 @@
         <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>82</v>
@@ -3508,10 +3701,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3522,7 +3715,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -3534,20 +3727,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>82</v>
       </c>
@@ -3571,13 +3760,13 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -3595,19 +3784,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -3619,57 +3808,55 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>82</v>
       </c>
@@ -3693,13 +3880,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3717,80 +3904,80 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3839,34 +4026,34 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3874,10 +4061,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3885,10 +4072,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -3897,20 +4084,18 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3959,19 +4144,19 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -3980,13 +4165,13 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>82</v>
@@ -3994,21 +4179,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>82</v>
@@ -4017,23 +4202,19 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4057,13 +4238,13 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -4081,34 +4262,34 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4116,21 +4297,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4139,23 +4320,19 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4191,93 +4368,91 @@
         <v>82</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4325,34 +4500,34 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4360,10 +4535,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4371,33 +4546,35 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4421,13 +4598,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4445,34 +4622,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4480,10 +4657,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4503,20 +4680,22 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4541,13 +4720,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -4565,7 +4744,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4577,68 +4756,68 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4663,71 +4842,71 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4736,31 +4915,31 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4809,45 +4988,45 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4858,32 +5037,30 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -4907,13 +5084,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4931,31 +5108,31 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -4966,21 +5143,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -4989,23 +5166,21 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5029,13 +5204,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5053,56 +5228,56 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>307</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5111,22 +5286,22 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5175,31 +5350,31 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5210,21 +5385,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5233,21 +5408,23 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5271,104 +5448,104 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D30" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5393,13 +5570,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5417,31 +5594,31 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5452,10 +5629,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5466,7 +5643,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5475,19 +5652,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5537,45 +5714,45 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5586,7 +5763,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5595,21 +5772,21 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5657,45 +5834,45 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5706,7 +5883,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5715,22 +5892,22 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5767,31 +5944,29 @@
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5800,26 +5975,28 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5828,28 +6005,32 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5897,19 +6078,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5918,35 +6099,35 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -5958,18 +6139,20 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -5993,13 +6176,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>
@@ -6017,19 +6200,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6038,10 +6221,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6052,14 +6235,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6072,25 +6255,25 @@
         <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>142</v>
+        <v>353</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6115,13 +6298,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6139,7 +6322,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6151,7 +6334,7 @@
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6160,24 +6343,24 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>136</v>
+        <v>358</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6188,7 +6371,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6200,16 +6383,20 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6257,19 +6444,19 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -6278,10 +6465,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6292,10 +6479,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6306,7 +6493,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6318,15 +6505,17 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>380</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6351,13 +6540,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6375,19 +6564,19 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6396,24 +6585,24 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>82</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6424,7 +6613,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6436,20 +6625,18 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>381</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6473,13 +6660,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6497,31 +6684,31 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6532,10 +6719,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6546,7 +6733,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6558,19 +6745,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6595,13 +6782,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6619,31 +6806,31 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6654,10 +6841,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6668,7 +6855,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6680,18 +6867,18 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6739,19 +6926,19 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>399</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
@@ -6760,24 +6947,24 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6788,7 +6975,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6800,15 +6987,17 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6857,45 +7046,45 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6915,21 +7104,23 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -6977,7 +7168,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6989,7 +7180,7 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>418</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -6998,10 +7189,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7012,10 +7203,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7026,7 +7217,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7035,20 +7226,18 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>184</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7097,19 +7286,19 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>423</v>
+        <v>186</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7118,10 +7307,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>428</v>
+        <v>188</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7132,14 +7321,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7155,23 +7344,21 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>357</v>
+        <v>142</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>430</v>
+        <v>143</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>431</v>
+        <v>190</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7219,7 +7406,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>429</v>
+        <v>191</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7231,7 +7418,7 @@
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7240,10 +7427,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>435</v>
+        <v>188</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7254,42 +7441,46 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>142</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>194</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7337,19 +7528,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>196</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7361,7 +7552,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>370</v>
+        <v>139</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7372,21 +7563,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7398,17 +7589,15 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>139</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>140</v>
+        <v>426</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7457,19 +7646,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7478,10 +7667,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>370</v>
+        <v>429</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7492,46 +7681,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>139</v>
+        <v>425</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7579,19 +7764,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -7600,10 +7785,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>136</v>
+        <v>433</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7614,10 +7799,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7625,10 +7810,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
@@ -7637,23 +7822,19 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7677,13 +7858,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>206</v>
+        <v>344</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>207</v>
+        <v>437</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>208</v>
+        <v>438</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7701,34 +7882,34 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AO49" t="s" s="2">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7736,10 +7917,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7750,7 +7931,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -7759,22 +7940,22 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>278</v>
+        <v>442</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>280</v>
+        <v>444</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7799,13 +7980,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7823,45 +8004,45 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7872,7 +8053,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -7884,19 +8065,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>293</v>
+        <v>453</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7921,13 +8102,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>295</v>
+        <v>454</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>296</v>
+        <v>455</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7945,34 +8126,34 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -7980,21 +8161,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8006,19 +8187,17 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>457</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>458</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>304</v>
+        <v>460</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8043,13 +8222,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8067,45 +8246,45 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>307</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>309</v>
+        <v>461</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8116,7 +8295,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8128,20 +8307,16 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>83</v>
+        <v>463</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8189,41 +8364,1373 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP53" t="s" s="2">
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP53">
+  <autoFilter ref="A1:AP64">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8233,7 +9740,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
